--- a/Tkinter/testing.xlsx
+++ b/Tkinter/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
   <si>
     <t>UID</t>
   </si>
@@ -1935,15 +1935,6 @@
   </si>
   <si>
     <t>jptomanelli@gmail.com</t>
-  </si>
-  <si>
-    <t>4FD889D140</t>
-  </si>
-  <si>
-    <t>Freddy Velez</t>
-  </si>
-  <si>
-    <t>freddy.velez@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -1954,7 +1945,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1972,10 +1963,6 @@
     </font>
     <font>
       <sz val="18"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="15"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2017,9 +2004,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2028,7 +2015,6 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3146,10 +3132,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="0"/>
@@ -3158,7 +3144,6 @@
     <col customWidth="1" max="3" min="2" style="4" width="30"/>
     <col customWidth="1" max="3" min="3" style="4" width="30"/>
     <col customWidth="1" max="246" min="4" style="4" width="20"/>
-    <col customWidth="1" max="10" min="10" style="4" width="20"/>
     <col customWidth="1" max="11" min="11" style="4" width="20"/>
   </cols>
   <sheetData>
@@ -7483,23 +7468,6 @@
       </c>
       <c r="J240" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
-      <c r="A241" t="s">
-        <v>640</v>
-      </c>
-      <c r="B241" t="s">
-        <v>641</v>
-      </c>
-      <c r="C241" t="s">
-        <v>642</v>
-      </c>
-      <c r="J241" t="n">
-        <v>2</v>
-      </c>
-      <c r="K241" t="n">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7534,80 +7502,72 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.95" r="1" s="4" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>643</v>
+      <c r="A1" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <f>SUM(Sheet!D2:D241)</f>
-        <v/>
+      <c r="B2" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <f>SUM(Sheet!E2:E241)</f>
-        <v/>
+      <c r="B3" t="n">
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <f>SUM(Sheet!F2:F241)</f>
-        <v/>
+      <c r="B4" t="n">
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <f>SUM(Sheet!G2:G241)</f>
-        <v/>
+      <c r="B5" t="n">
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <f>SUM(Sheet!H2:H241)</f>
-        <v/>
+      <c r="B6" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <f>SUM(Sheet!I2:I241)</f>
-        <v/>
+      <c r="B7" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <f>SUM(Sheet!J2:J241)</f>
-        <v/>
+      <c r="B8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <f>SUM(Sheet!K2:K241)</f>
-        <v/>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
